--- a/Dog Breed Intelligence ranking.xlsx
+++ b/Dog Breed Intelligence ranking.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlieburns/Documents/Projects/other/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlieburns/Documents/Projects/Dog project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C76E6520-0BFA-CF47-8258-482F53C42A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E74C9A-F3AD-834C-8746-11FAA784FF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2160" windowWidth="28220" windowHeight="17440" activeTab="1" xr2:uid="{34F4EF69-0602-EF4E-94D5-F94D9FE02CA2}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="167">
   <si>
     <t xml:space="preserve">The Intelligence of Dogs: A Guide to the Thoughts, Emotions, and Inner Lives of Our Canine Companions </t>
   </si>
@@ -101,9 +101,6 @@
     <t>Border Collie</t>
   </si>
   <si>
-    <t>Brightest Dogs</t>
-  </si>
-  <si>
     <t>Understanding of new commands: fewer than 5 repetitions.</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>Pembroke Welsh Corgi</t>
   </si>
   <si>
-    <t>Excellent Working Dogs</t>
-  </si>
-  <si>
     <t>Understanding of new commands: 5 to 15 repetitions.</t>
   </si>
   <si>
@@ -212,9 +206,6 @@
     <t>Chesapeake Bay Retriever</t>
   </si>
   <si>
-    <t>Above Average Working Dogs</t>
-  </si>
-  <si>
     <t>Understanding of new commands: 15 to 25 repetitions.</t>
   </si>
   <si>
@@ -549,13 +540,22 @@
   </si>
   <si>
     <t>Afghan Hound</t>
+  </si>
+  <si>
+    <t>One of the Brightest Dog Breeds</t>
+  </si>
+  <si>
+    <t>Excellent Working Dog Breed</t>
+  </si>
+  <si>
+    <t>Above Average Working Dog Breed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -585,6 +585,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -619,19 +625,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -650,7 +643,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -993,8 +1001,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A15:C159"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B159"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1005,14 +1013,14 @@
   </cols>
   <sheetData>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
@@ -1039,16 +1047,16 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="14">
         <v>34464</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1089,1129 +1097,1153 @@
       <c r="A27" s="3">
         <v>1</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>17</v>
+      <c r="C27" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>2</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="11"/>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>3</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>18</v>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>4</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>19</v>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>5</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="9"/>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>6</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="9"/>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>7</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="9"/>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>8</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="9"/>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>9</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="9"/>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>10</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="9"/>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>11</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>30</v>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>12</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="11"/>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>13</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>31</v>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>14</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="14">
-        <v>15</v>
-      </c>
-      <c r="B41" s="15" t="s">
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15" t="s">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="9"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="14">
-        <v>16</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="9"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="9"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>17</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="9"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="14">
-        <v>18</v>
-      </c>
-      <c r="B46" s="15" t="s">
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="9"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="9"/>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>19</v>
       </c>
-      <c r="B49" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="9"/>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>20</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="9"/>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>21</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
+      <c r="B53" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="9"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="14">
-        <v>22</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="9"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
-      <c r="B53" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="9"/>
+      <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>23</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="9"/>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>24</v>
       </c>
-      <c r="B55" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="9"/>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>25</v>
       </c>
-      <c r="B56" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="9"/>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>26</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="9"/>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="C57" s="9"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="14">
-        <v>27</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="11"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
-      <c r="B60" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>28</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
+        <v>29</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="9"/>
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="14">
-        <v>29</v>
-      </c>
-      <c r="B62" s="15" t="s">
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+      <c r="B65" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="9"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" s="9"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="14">
-        <v>30</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" s="9"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="9"/>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>31</v>
       </c>
-      <c r="B66" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" s="9"/>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="4"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>32</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="9"/>
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="4"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>33</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
+        <v>34</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="9"/>
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="9"/>
+      <c r="B71" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="9"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="14">
-        <v>34</v>
-      </c>
-      <c r="B69" s="15" t="s">
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="9"/>
+      <c r="B72" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="9"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="15" t="s">
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="9"/>
+      <c r="B73" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="9"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="15" t="s">
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="9"/>
+      <c r="B74" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="9"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="15" t="s">
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="9">
+        <v>35</v>
+      </c>
+      <c r="B75" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="9"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="15" t="s">
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="9"/>
+      <c r="B76" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="9"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
-      <c r="B74" s="15" t="s">
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="9"/>
+      <c r="B77" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="9"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="14">
-        <v>35</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="9"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="9"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="9"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>36</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="9">
+        <v>37</v>
+      </c>
+      <c r="B79" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="9"/>
+      <c r="B80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="9"/>
+      <c r="B81" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="9"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="14">
-        <v>37</v>
-      </c>
-      <c r="B79" s="15" t="s">
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="9"/>
+      <c r="B82" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="9"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="15" t="s">
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="9"/>
+      <c r="B83" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="9"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
-      <c r="B81" s="15" t="s">
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="9"/>
+      <c r="B84" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="9"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="14"/>
-      <c r="B82" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C82" s="9"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="14"/>
-      <c r="B83" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" s="9"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="14"/>
-      <c r="B84" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" s="9"/>
+      <c r="C84" s="4"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>38</v>
       </c>
-      <c r="B85" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" s="9"/>
+      <c r="B85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" s="4"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>39</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="9">
+        <v>40</v>
+      </c>
+      <c r="B87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="9"/>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="6"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="9"/>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="9"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="14">
-        <v>40</v>
-      </c>
-      <c r="B87" s="15" t="s">
+    </row>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="9">
+        <v>41</v>
+      </c>
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="14"/>
-      <c r="B88" s="15" t="s">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="9"/>
+      <c r="B91" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="11"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="14"/>
-      <c r="B89" s="15" t="s">
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="9">
+        <v>42</v>
+      </c>
+      <c r="B92" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="14">
-        <v>41</v>
-      </c>
-      <c r="B90" s="15" t="s">
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="9"/>
+      <c r="B93" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="14"/>
-      <c r="B91" s="15" t="s">
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="9">
+        <v>43</v>
+      </c>
+      <c r="B94" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="9"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="14">
-        <v>42</v>
-      </c>
-      <c r="B92" s="15" t="s">
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="9"/>
+      <c r="B95" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="9"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="14"/>
-      <c r="B93" s="15" t="s">
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="9"/>
+      <c r="B96" t="s">
         <v>94</v>
       </c>
-      <c r="C93" s="9"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="14">
-        <v>43</v>
-      </c>
-      <c r="B94" s="15" t="s">
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="9">
+        <v>44</v>
+      </c>
+      <c r="B97" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="9"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="14"/>
-      <c r="B95" s="15" t="s">
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="9"/>
+      <c r="B98" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="9"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="14"/>
-      <c r="B96" s="15" t="s">
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="9"/>
+      <c r="B99" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="9"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="14">
-        <v>44</v>
-      </c>
-      <c r="B97" s="15" t="s">
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="9"/>
+      <c r="B100" t="s">
         <v>98</v>
       </c>
-      <c r="C97" s="9"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="14"/>
-      <c r="B98" s="15" t="s">
+      <c r="C100" s="4"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="9">
+        <v>45</v>
+      </c>
+      <c r="B101" t="s">
         <v>99</v>
       </c>
-      <c r="C98" s="9"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="14"/>
-      <c r="B99" s="15" t="s">
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="9"/>
+      <c r="B102" t="s">
         <v>100</v>
       </c>
-      <c r="C99" s="9"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="14"/>
-      <c r="B100" s="15" t="s">
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="9"/>
+      <c r="B103" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="9"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="14">
-        <v>45</v>
-      </c>
-      <c r="B101" s="15" t="s">
+      <c r="C103" s="4"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="9">
+        <v>46</v>
+      </c>
+      <c r="B104" t="s">
         <v>102</v>
       </c>
-      <c r="C101" s="9"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="14"/>
-      <c r="B102" s="15" t="s">
+      <c r="C104" s="4"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="9"/>
+      <c r="B105" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="9"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="14"/>
-      <c r="B103" s="15" t="s">
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="9"/>
+      <c r="B106" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="9"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="14">
-        <v>46</v>
-      </c>
-      <c r="B104" s="15" t="s">
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="9"/>
+      <c r="B107" t="s">
         <v>105</v>
       </c>
-      <c r="C104" s="9"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="14"/>
-      <c r="B105" s="15" t="s">
+      <c r="C107" s="4"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="9"/>
+      <c r="B108" t="s">
         <v>106</v>
       </c>
-      <c r="C105" s="9"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="14"/>
-      <c r="B106" s="15" t="s">
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="9"/>
+      <c r="B109" t="s">
         <v>107</v>
       </c>
-      <c r="C106" s="9"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="14"/>
-      <c r="B107" s="15" t="s">
+      <c r="C109" s="4"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="9"/>
+      <c r="B110" t="s">
         <v>108</v>
       </c>
-      <c r="C107" s="9"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="14"/>
-      <c r="B108" s="15" t="s">
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="9">
+        <v>47</v>
+      </c>
+      <c r="B111" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="9"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="14"/>
-      <c r="B109" s="15" t="s">
+      <c r="C111" s="4"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="9"/>
+      <c r="B112" t="s">
         <v>110</v>
       </c>
-      <c r="C109" s="9"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="14"/>
-      <c r="B110" s="15" t="s">
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="9">
+        <v>48</v>
+      </c>
+      <c r="B113" t="s">
         <v>111</v>
       </c>
-      <c r="C110" s="9"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="14">
-        <v>47</v>
-      </c>
-      <c r="B111" s="15" t="s">
+      <c r="C113" s="4"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="9"/>
+      <c r="B114" t="s">
         <v>112</v>
       </c>
-      <c r="C111" s="9"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="14"/>
-      <c r="B112" s="15" t="s">
+      <c r="C114" s="4"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="9">
+        <v>49</v>
+      </c>
+      <c r="B115" t="s">
         <v>113</v>
       </c>
-      <c r="C112" s="9"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="14">
-        <v>48</v>
-      </c>
-      <c r="B113" s="15" t="s">
+      <c r="C115" s="4"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="9"/>
+      <c r="B116" t="s">
         <v>114</v>
       </c>
-      <c r="C113" s="9"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="14"/>
-      <c r="B114" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C114" s="9"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="14">
-        <v>49</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C115" s="9"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="14"/>
-      <c r="B116" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C116" s="9"/>
+      <c r="C116" s="4"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>50</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" s="4"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="9">
+        <v>51</v>
+      </c>
+      <c r="B118" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" s="4"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="9"/>
+      <c r="B119" t="s">
+        <v>117</v>
+      </c>
+      <c r="C119" s="4"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="9"/>
+      <c r="B120" t="s">
         <v>118</v>
       </c>
-      <c r="C117" s="9"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="14">
-        <v>51</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="14"/>
-      <c r="B119" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="14"/>
-      <c r="B120" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C120" s="9"/>
+      <c r="C120" s="4"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>52</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" t="s">
+        <v>119</v>
+      </c>
+      <c r="C121" s="4"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="9">
+        <v>53</v>
+      </c>
+      <c r="B122" t="s">
+        <v>120</v>
+      </c>
+      <c r="C122" s="4"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="9"/>
+      <c r="B123" t="s">
+        <v>121</v>
+      </c>
+      <c r="C123" s="4"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="9"/>
+      <c r="B124" t="s">
         <v>122</v>
       </c>
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="14">
-        <v>53</v>
-      </c>
-      <c r="B122" s="15" t="s">
+      <c r="C124" s="4"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="9">
+        <v>54</v>
+      </c>
+      <c r="B125" t="s">
         <v>123</v>
       </c>
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="14"/>
-      <c r="B123" s="15" t="s">
+      <c r="C125" s="4"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="9"/>
+      <c r="B126" t="s">
         <v>124</v>
       </c>
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="14"/>
-      <c r="B124" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="14">
-        <v>54</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="14"/>
-      <c r="B126" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C126" s="9"/>
+      <c r="C126" s="4"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>55</v>
       </c>
-      <c r="B127" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C127" s="10" t="s">
+      <c r="B127" t="s">
+        <v>125</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="9">
+        <v>56</v>
+      </c>
+      <c r="B128" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="14">
-        <v>56</v>
-      </c>
-      <c r="B128" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C128" s="11"/>
+      <c r="C128" s="6"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="14"/>
-      <c r="B129" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C129" s="12" t="s">
+      <c r="A129" s="9"/>
+      <c r="B129" t="s">
         <v>130</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>57</v>
       </c>
-      <c r="B130" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C130" s="13" t="s">
+      <c r="B130" t="s">
         <v>131</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>58</v>
       </c>
-      <c r="B131" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C131" s="9"/>
+      <c r="B131" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="14">
+      <c r="A132" s="9">
         <v>59</v>
       </c>
-      <c r="B132" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C132" s="9"/>
+      <c r="B132" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="14"/>
-      <c r="B133" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C133" s="9"/>
+      <c r="A133" s="9"/>
+      <c r="B133" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>60</v>
       </c>
-      <c r="B134" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C134" s="9"/>
+      <c r="B134" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>61</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" t="s">
+        <v>136</v>
+      </c>
+      <c r="C135" s="4"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="9">
+        <v>62</v>
+      </c>
+      <c r="B136" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136" s="4"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="9"/>
+      <c r="B137" t="s">
+        <v>138</v>
+      </c>
+      <c r="C137" s="4"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="9"/>
+      <c r="B138" t="s">
         <v>139</v>
       </c>
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="14">
-        <v>62</v>
-      </c>
-      <c r="B136" s="15" t="s">
+      <c r="C138" s="4"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="9"/>
+      <c r="B139" t="s">
         <v>140</v>
       </c>
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="14"/>
-      <c r="B137" s="15" t="s">
+      <c r="C139" s="4"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="9"/>
+      <c r="B140" t="s">
         <v>141</v>
       </c>
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="14"/>
-      <c r="B138" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="14"/>
-      <c r="B139" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="14"/>
-      <c r="B140" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C140" s="9"/>
+      <c r="C140" s="4"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>63</v>
       </c>
-      <c r="B141" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C141" s="9"/>
+      <c r="B141" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141" s="4"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>64</v>
       </c>
-      <c r="B142" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C142" s="9"/>
+      <c r="B142" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" s="4"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="14">
+      <c r="A143" s="9">
         <v>65</v>
       </c>
-      <c r="B143" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C143" s="9"/>
+      <c r="B143" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143" s="4"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="14"/>
-      <c r="B144" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C144" s="9"/>
+      <c r="A144" s="9"/>
+      <c r="B144" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144" s="4"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>66</v>
       </c>
-      <c r="B145" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C145" s="9"/>
+      <c r="B145" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145" s="4"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>67</v>
       </c>
-      <c r="B146" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C146" s="9"/>
+      <c r="B146" t="s">
+        <v>147</v>
+      </c>
+      <c r="C146" s="4"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>68</v>
       </c>
-      <c r="B147" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C147" s="9"/>
+      <c r="B147" t="s">
+        <v>148</v>
+      </c>
+      <c r="C147" s="4"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>69</v>
       </c>
-      <c r="B148" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C148" s="9"/>
+      <c r="B148" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" s="4"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>70</v>
       </c>
-      <c r="B149" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>154</v>
+      <c r="B149" t="s">
+        <v>150</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>71</v>
       </c>
-      <c r="B150" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C150" s="11"/>
+      <c r="B150" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150" s="6"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="14">
+      <c r="A151" s="9">
         <v>72</v>
       </c>
-      <c r="B151" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C151" s="12" t="s">
+      <c r="B151" t="s">
         <v>155</v>
       </c>
+      <c r="C151" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="152" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="14"/>
-      <c r="B152" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C152" s="13" t="s">
+      <c r="A152" s="9"/>
+      <c r="B152" t="s">
         <v>156</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>73</v>
       </c>
-      <c r="B153" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C153" s="9"/>
+      <c r="B153" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" s="4"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>74</v>
       </c>
-      <c r="B154" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C154" s="9"/>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
+      <c r="C154" s="4"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>75</v>
       </c>
-      <c r="B155" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C155" s="9"/>
+      <c r="B155" t="s">
+        <v>159</v>
+      </c>
+      <c r="C155" s="4"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>76</v>
       </c>
-      <c r="B156" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C156" s="9"/>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156" s="4"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>77</v>
       </c>
-      <c r="B157" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C157" s="9"/>
+      <c r="B157" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157" s="4"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>78</v>
       </c>
-      <c r="B158" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C158" s="9"/>
+      <c r="B158" t="s">
+        <v>162</v>
+      </c>
+      <c r="C158" s="4"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>79</v>
       </c>
-      <c r="B159" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C159" s="9"/>
+      <c r="B159" t="s">
+        <v>163</v>
+      </c>
+      <c r="C159" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
     <mergeCell ref="A143:A144"/>
     <mergeCell ref="A151:A152"/>
     <mergeCell ref="A118:A120"/>
@@ -2220,30 +2252,6 @@
     <mergeCell ref="A128:A129"/>
     <mergeCell ref="A132:A133"/>
     <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A16" r:id="rId1" display="file:///wiki/File:The_Intelligence_of_Dogs.jpg" xr:uid="{E610EA87-9989-9243-9EB7-CA10EE6A432A}"/>
@@ -2262,983 +2270,1404 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E41A83-3AB0-9F4A-8410-A4544A81F006}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
-        <v>15</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
-        <v>16</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
-        <v>18</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
-        <v>22</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>23</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>24</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>25</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>26</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="14">
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
         <v>27</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>28</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="14">
-        <v>29</v>
-      </c>
-      <c r="B37" s="15" t="s">
+      <c r="C39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="14">
-        <v>30</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>31</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>32</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>33</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="14">
-        <v>34</v>
-      </c>
-      <c r="B44" s="15" t="s">
+      <c r="C46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15" t="s">
+      <c r="C47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15" t="s">
+      <c r="C48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15" t="s">
+      <c r="C49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15" t="s">
+      <c r="C50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
+      <c r="B51" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15" t="s">
+      <c r="C51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="9"/>
+      <c r="B52" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="14">
-        <v>35</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>36</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="9">
+        <v>37</v>
+      </c>
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="9"/>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="14">
-        <v>37</v>
-      </c>
-      <c r="B54" s="15" t="s">
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="9"/>
+      <c r="B57" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15" t="s">
+      <c r="C57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="9"/>
+      <c r="B58" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="15" t="s">
+      <c r="C58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="B59" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>38</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>39</v>
       </c>
-      <c r="B61" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="14">
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
         <v>40</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="15" t="s">
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="9"/>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="9"/>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
+        <v>41</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="9"/>
+      <c r="B66" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="15" t="s">
+      <c r="C66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
+        <v>42</v>
+      </c>
+      <c r="B67" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="14">
-        <v>41</v>
-      </c>
-      <c r="B65" s="15" t="s">
+      <c r="C67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="9"/>
+      <c r="B68" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="15" t="s">
+      <c r="C68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
+        <v>43</v>
+      </c>
+      <c r="B69" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="14">
-        <v>42</v>
-      </c>
-      <c r="B67" s="15" t="s">
+      <c r="C69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="9"/>
+      <c r="B70" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="15" t="s">
+      <c r="C70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="9"/>
+      <c r="B71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="14">
-        <v>43</v>
-      </c>
-      <c r="B69" s="15" t="s">
+      <c r="C71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="9">
+        <v>44</v>
+      </c>
+      <c r="B72" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="15" t="s">
+      <c r="C72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="9"/>
+      <c r="B73" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="15" t="s">
+      <c r="C73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="9"/>
+      <c r="B74" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="14">
-        <v>44</v>
-      </c>
-      <c r="B72" s="15" t="s">
+      <c r="C74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="9"/>
+      <c r="B75" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="15" t="s">
+      <c r="C75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="9">
+        <v>45</v>
+      </c>
+      <c r="B76" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
-      <c r="B74" s="15" t="s">
+      <c r="C76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="9"/>
+      <c r="B77" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="14"/>
-      <c r="B75" s="15" t="s">
+      <c r="C77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="9"/>
+      <c r="B78" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="14">
-        <v>45</v>
-      </c>
-      <c r="B76" s="15" t="s">
+      <c r="C78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="9">
+        <v>46</v>
+      </c>
+      <c r="B79" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="15" t="s">
+      <c r="C79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="9"/>
+      <c r="B80" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="15" t="s">
+      <c r="C80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="9"/>
+      <c r="B81" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="14">
-        <v>46</v>
-      </c>
-      <c r="B79" s="15" t="s">
+      <c r="C81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="9"/>
+      <c r="B82" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="15" t="s">
+      <c r="C82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="9"/>
+      <c r="B83" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
-      <c r="B81" s="15" t="s">
+      <c r="C83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="9"/>
+      <c r="B84" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="14"/>
-      <c r="B82" s="15" t="s">
+      <c r="C84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="9"/>
+      <c r="B85" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="14"/>
-      <c r="B83" s="15" t="s">
+      <c r="C85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="9">
+        <v>47</v>
+      </c>
+      <c r="B86" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="14"/>
-      <c r="B84" s="15" t="s">
+      <c r="C86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="9"/>
+      <c r="B87" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="14"/>
-      <c r="B85" s="15" t="s">
+      <c r="C87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="9">
+        <v>48</v>
+      </c>
+      <c r="B88" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="14">
-        <v>47</v>
-      </c>
-      <c r="B86" s="15" t="s">
+      <c r="C88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="9"/>
+      <c r="B89" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="14"/>
-      <c r="B87" s="15" t="s">
+      <c r="C89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="9">
+        <v>49</v>
+      </c>
+      <c r="B90" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="14">
-        <v>48</v>
-      </c>
-      <c r="B88" s="15" t="s">
+      <c r="C90" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="9"/>
+      <c r="B91" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="14"/>
-      <c r="B89" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="14">
-        <v>49</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="14"/>
-      <c r="B91" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>50</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="9">
+        <v>51</v>
+      </c>
+      <c r="B93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="9"/>
+      <c r="B94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="9"/>
+      <c r="B95" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="14">
-        <v>51</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="14"/>
-      <c r="B94" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="14"/>
-      <c r="B95" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>52</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" t="s">
+        <v>119</v>
+      </c>
+      <c r="C96" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="9">
+        <v>53</v>
+      </c>
+      <c r="B97" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="9"/>
+      <c r="B98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="9"/>
+      <c r="B99" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="14">
-        <v>53</v>
-      </c>
-      <c r="B97" s="15" t="s">
+      <c r="C99" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="9">
+        <v>54</v>
+      </c>
+      <c r="B100" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="14"/>
-      <c r="B98" s="15" t="s">
+      <c r="C100" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="9"/>
+      <c r="B101" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="14"/>
-      <c r="B99" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="14">
-        <v>54</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="14"/>
-      <c r="B101" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>55</v>
       </c>
-      <c r="B102" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="14">
+      <c r="B102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C102" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="9">
         <v>56</v>
       </c>
-      <c r="B103" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="14"/>
-      <c r="B104" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="9"/>
+      <c r="B104" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>57</v>
       </c>
-      <c r="B105" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>58</v>
       </c>
-      <c r="B106" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="14">
+      <c r="B106" t="s">
+        <v>132</v>
+      </c>
+      <c r="C106" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="9">
         <v>59</v>
       </c>
-      <c r="B107" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="14"/>
-      <c r="B108" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>133</v>
+      </c>
+      <c r="C107" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="9"/>
+      <c r="B108" t="s">
+        <v>134</v>
+      </c>
+      <c r="C108" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>60</v>
       </c>
-      <c r="B109" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>135</v>
+      </c>
+      <c r="C109" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>61</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="9">
+        <v>62</v>
+      </c>
+      <c r="B111" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="9"/>
+      <c r="B112" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="9"/>
+      <c r="B113" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="14">
-        <v>62</v>
-      </c>
-      <c r="B111" s="15" t="s">
+      <c r="C113" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="9"/>
+      <c r="B114" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="14"/>
-      <c r="B112" s="15" t="s">
+      <c r="C114" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="9"/>
+      <c r="B115" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="14"/>
-      <c r="B113" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="14"/>
-      <c r="B114" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="14"/>
-      <c r="B115" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>63</v>
       </c>
-      <c r="B116" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>64</v>
       </c>
-      <c r="B117" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="14">
+      <c r="B117" t="s">
+        <v>143</v>
+      </c>
+      <c r="C117" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="9">
         <v>65</v>
       </c>
-      <c r="B118" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="14"/>
-      <c r="B119" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>144</v>
+      </c>
+      <c r="C118" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="9"/>
+      <c r="B119" t="s">
+        <v>145</v>
+      </c>
+      <c r="C119" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>66</v>
       </c>
-      <c r="B120" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>146</v>
+      </c>
+      <c r="C120" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>67</v>
       </c>
-      <c r="B121" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>147</v>
+      </c>
+      <c r="C121" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>68</v>
       </c>
-      <c r="B122" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>148</v>
+      </c>
+      <c r="C122" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>69</v>
       </c>
-      <c r="B123" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>149</v>
+      </c>
+      <c r="C123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>70</v>
       </c>
-      <c r="B124" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>150</v>
+      </c>
+      <c r="C124" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>71</v>
       </c>
-      <c r="B125" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="14">
+      <c r="B125" t="s">
+        <v>154</v>
+      </c>
+      <c r="C125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="9">
         <v>72</v>
       </c>
-      <c r="B126" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="14"/>
-      <c r="B127" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>155</v>
+      </c>
+      <c r="C126" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="9"/>
+      <c r="B127" t="s">
+        <v>156</v>
+      </c>
+      <c r="C127" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>73</v>
       </c>
-      <c r="B128" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>74</v>
       </c>
-      <c r="B129" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>158</v>
+      </c>
+      <c r="C129" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>75</v>
       </c>
-      <c r="B130" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>159</v>
+      </c>
+      <c r="C130" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>76</v>
       </c>
-      <c r="B131" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>77</v>
       </c>
-      <c r="B132" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>161</v>
+      </c>
+      <c r="C132" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>78</v>
       </c>
-      <c r="B133" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>79</v>
       </c>
-      <c r="B134" s="15" t="s">
-        <v>166</v>
+      <c r="B134" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A79:A85"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="A111:A115"/>
     <mergeCell ref="A118:A119"/>
@@ -3249,24 +3678,6 @@
     <mergeCell ref="A97:A99"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A79:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
